--- a/src/test/resources/inscriptions_test.xlsx
+++ b/src/test/resources/inscriptions_test.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA14E6CC-EED3-4BBE-98DC-0FCBD46A23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgQ9trHIyBBT99qaUmGB95ujxD/0Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miL/yMDCmXpGQ20s2wQsGiw5BRFXQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -74,102 +60,105 @@
     <t>pepitopalotes@gmail.com</t>
   </si>
   <si>
+    <t>Pepito0 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>1º Curso Educación Infantil</t>
+  </si>
+  <si>
+    <t>Pau Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>2º Curso Educación Primaria</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MepS_u_9h7_8AcPmbn0axFAzXK0aLDYR</t>
+  </si>
+  <si>
+    <t>He leído y acepto la Política Privacidad y de Proteccion de Datos</t>
+  </si>
+  <si>
+    <t>No Autorizo</t>
+  </si>
+  <si>
+    <t>Pepito1 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea1 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>pepitopalotes34@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito2 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea2 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>pepitopalotes35@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito3 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea3 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>pepitopalotes36@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito4 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea4 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>pepitopalotes37@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito5 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea5 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>pepitopalotes38@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito6 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea6 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>lafigatatia@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito7 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea7 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>lamarequeva@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito8 Palotes Pérez</t>
+  </si>
+  <si>
+    <t>Altea8 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>latiatamare@gmail.com</t>
+  </si>
+  <si>
     <t>Pepito Palotes Pérez</t>
   </si>
   <si>
-    <t>Altea Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>1º Curso Educación Infantil</t>
-  </si>
-  <si>
-    <t>Pau Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>2º Curso Educación Primaria</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1MepS_u_9h7_8AcPmbn0axFAzXK0aLDYR</t>
-  </si>
-  <si>
-    <t>He leído y acepto la Política Privacidad y de Proteccion de Datos</t>
-  </si>
-  <si>
-    <t>No Autorizo</t>
-  </si>
-  <si>
-    <t>Pepito1 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea1 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>pepitopalotes34@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito2 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea2 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>pepitopalotes35@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito3 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea3 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>pepitopalotes36@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito4 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea4 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>pepitopalotes37@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito5 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea5 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>pepitopalotes38@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito6 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea6 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>lafigatatia@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito7 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea7 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>lamarequeva@gmail.com</t>
-  </si>
-  <si>
-    <t>Pepito8 Palotes Pérez</t>
-  </si>
-  <si>
-    <t>Altea8 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>latiatamare@gmail.com</t>
-  </si>
-  <si>
     <t>Altea9 Palotes Sánchez</t>
   </si>
   <si>
@@ -188,86 +177,92 @@
     <t>testingname2@gmail.com</t>
   </si>
   <si>
+    <t>Other Parent Name</t>
+  </si>
+  <si>
+    <t>Altea11 Palotes Sánchez</t>
+  </si>
+  <si>
+    <t>testingname3@gmail.com</t>
+  </si>
+  <si>
+    <t>Parent1 Name Surname</t>
+  </si>
+  <si>
     <t>Second2 Parent Name</t>
   </si>
   <si>
-    <t>Altea11 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>testingname3@gmail.com</t>
-  </si>
-  <si>
-    <t>Parent1 Name Surname</t>
+    <t>Lina Apellido Apellido</t>
+  </si>
+  <si>
+    <t>testingname5@gmail.com</t>
+  </si>
+  <si>
+    <t>Inmaculada Inma Inma</t>
   </si>
   <si>
     <t>Second3 Parent Name</t>
   </si>
   <si>
-    <t>Child Sánchez Surname</t>
-  </si>
-  <si>
-    <t>testingname4@gmail.com</t>
-  </si>
-  <si>
-    <t>Parent2 Name Surname</t>
-  </si>
-  <si>
-    <t>Second4 Parent Name</t>
-  </si>
-  <si>
-    <t>Altea12 Palotes Sánchez</t>
-  </si>
-  <si>
-    <t>testingname5@gmail.com</t>
-  </si>
-  <si>
-    <t>Inmaculada Inma Inma</t>
-  </si>
-  <si>
-    <t>Other Parent Name</t>
+    <t>Lucas Fernández Pérez</t>
   </si>
   <si>
     <t>Altea13 Palotes Sánchez</t>
   </si>
   <si>
+    <t>María Fernández Pérez</t>
+  </si>
+  <si>
     <t>Other Pérez Surname</t>
+  </si>
+  <si>
+    <t>testingname6@gmail.com</t>
+  </si>
+  <si>
+    <t>Pepito9 Palotes Pérez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -276,53 +271,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -512,31 +504,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD1000"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="25" width="18.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="27.75"/>
+    <col customWidth="1" min="3" max="3" width="28.88"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="45.13"/>
+    <col customWidth="1" min="6" max="7" width="18.88"/>
+    <col customWidth="1" min="8" max="8" width="23.75"/>
+    <col customWidth="1" min="9" max="25" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,21 +589,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>44696.796634872699</v>
+        <v>44696.7966348727</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>777777777</v>
+        <v>7.77777777E8</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -618,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>17</v>
@@ -626,7 +620,7 @@
       <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -636,21 +630,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>44696.796634872699</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>44696.7966348727</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>777777777</v>
+        <v>7.77777777E8</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -659,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>17</v>
@@ -667,7 +661,7 @@
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -677,9 +671,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>44696.796634872699</v>
+        <v>44696.7966348727</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -688,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>777777777</v>
+        <v>7.77777777E8</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -700,11 +694,11 @@
         <v>16</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -714,9 +708,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>44696.796634872699</v>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -724,13 +718,13 @@
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6">
-        <v>777777777</v>
+      <c r="D5" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6">
-        <v>1</v>
+      <c r="G5" s="7">
+        <v>1.0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -740,14 +734,14 @@
       <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
+      <c r="L5" s="7">
+        <v>1.0</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -763,9 +757,9 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>44696.796634872699</v>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -773,13 +767,13 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6">
-        <v>777777777</v>
+      <c r="D6" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="6">
-        <v>1</v>
+      <c r="G6" s="7">
+        <v>1.0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -789,14 +783,14 @@
       <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
+      <c r="L6" s="7">
+        <v>1.0</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -812,9 +806,9 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
-        <v>44696.796634872699</v>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -822,13 +816,13 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6">
-        <v>777777777</v>
+      <c r="D7" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="6">
-        <v>1</v>
+      <c r="G7" s="7">
+        <v>1.0</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -838,14 +832,14 @@
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
+      <c r="L7" s="7">
+        <v>1.0</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -861,9 +855,9 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
-        <v>44696.796634872699</v>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -871,13 +865,13 @@
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6">
-        <v>777777777</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="D8" s="7">
+        <v>7.77777777E8</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6">
-        <v>1</v>
+      <c r="G8" s="7">
+        <v>1.0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -887,14 +881,14 @@
       <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
+      <c r="L8" s="7">
+        <v>1.0</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -910,9 +904,9 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
-        <v>44696.796634872699</v>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -920,13 +914,13 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6">
-        <v>777777777</v>
+      <c r="D9" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="6">
-        <v>1</v>
+      <c r="G9" s="7">
+        <v>1.0</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -936,14 +930,14 @@
       <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
+      <c r="L9" s="7">
+        <v>1.0</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -959,9 +953,9 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
-        <v>44696.796634872699</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -969,13 +963,13 @@
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6">
-        <v>777777777</v>
+      <c r="D10" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="6">
-        <v>1</v>
+      <c r="G10" s="7">
+        <v>1.0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -985,14 +979,14 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="6">
-        <v>1</v>
+      <c r="L10" s="7">
+        <v>1.0</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1008,40 +1002,40 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
-        <v>44696.796634872699</v>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>44696.7966348727</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6">
-        <v>777777777</v>
+        <v>46</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="6">
-        <v>1</v>
+      <c r="G11" s="7">
+        <v>1.0</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="6">
-        <v>1</v>
+      <c r="L11" s="7">
+        <v>1.0</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1057,42 +1051,42 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6">
         <v>44696.796631944446</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6">
-        <v>777777777</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="6">
-        <v>1</v>
+      <c r="G12" s="7">
+        <v>1.0</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="6">
-        <v>1</v>
+      <c r="L12" s="7">
+        <v>1.0</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1108,42 +1102,42 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6">
         <v>44696.796631944446</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6">
-        <v>777777777</v>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.77777777E8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="6">
-        <v>1</v>
+      <c r="G13" s="7">
+        <v>1.0</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6">
-        <v>1</v>
+      <c r="L13" s="7">
+        <v>1.0</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1159,42 +1153,42 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6">
         <v>44696.796631944446</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6">
-        <v>777777777</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D14" s="7">
+        <v>7.77777777E8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="6">
-        <v>1</v>
+      <c r="G14" s="7">
+        <v>1.0</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>57</v>
+      <c r="J14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="6">
-        <v>1</v>
+      <c r="L14" s="7">
+        <v>1.0</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1210,42 +1204,50 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6">
         <v>44696.796631944446</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6">
-        <v>777777777</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D15" s="7">
+        <v>7.77777777E8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="G15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1"/>
+      <c r="L15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="7" t="s">
+      <c r="O15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1261,46 +1263,42 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6">
         <v>44696.796631944446</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="6">
-        <v>777777777</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
+      <c r="B16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7.77777777E8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="6">
-        <v>1</v>
+      <c r="G16" s="7">
+        <v>1.0</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="6">
-        <v>1</v>
+      <c r="L16" s="7">
+        <v>1.0</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -1318,29 +1316,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q12" r:id="rId12" xr:uid="{FD093A58-4130-4ECB-9097-294AB745F52C}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{219938AD-C5E3-4206-B0E3-5FC857B39F2D}"/>
-    <hyperlink ref="Q13" r:id="rId14" xr:uid="{4280135A-C5BB-433E-BE41-1FBF35FD9E89}"/>
-    <hyperlink ref="B13" r:id="rId15" xr:uid="{4EEC371C-AA65-4CC4-9990-B0D1FA5A63C7}"/>
-    <hyperlink ref="Q14" r:id="rId16" xr:uid="{5DB4DF20-4C56-4653-9771-AF2DDFC685ED}"/>
-    <hyperlink ref="B14" r:id="rId17" xr:uid="{D8DD79B5-1269-4FCF-8304-54480CC26F19}"/>
-    <hyperlink ref="Q15" r:id="rId18" xr:uid="{6BE92BB1-2B27-4093-A5E3-AFAC8F80D365}"/>
-    <hyperlink ref="B15" r:id="rId19" xr:uid="{A0ED2209-7A3C-4080-9BD3-7012656D2225}"/>
-    <hyperlink ref="Q16" r:id="rId20" xr:uid="{6A047689-FE54-4A6D-B07C-6520614DC77A}"/>
-    <hyperlink ref="B16" r:id="rId21" xr:uid="{588E7A6B-B274-4F23-A9E2-CF6E71D56B97}"/>
+    <hyperlink r:id="rId1" ref="Q2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="Q3"/>
+    <hyperlink r:id="rId4" ref="Q4"/>
+    <hyperlink r:id="rId5" ref="Q5"/>
+    <hyperlink r:id="rId6" ref="Q6"/>
+    <hyperlink r:id="rId7" ref="Q7"/>
+    <hyperlink r:id="rId8" ref="Q8"/>
+    <hyperlink r:id="rId9" ref="Q9"/>
+    <hyperlink r:id="rId10" ref="Q10"/>
+    <hyperlink r:id="rId11" ref="Q11"/>
+    <hyperlink r:id="rId12" ref="B12"/>
+    <hyperlink r:id="rId13" ref="Q12"/>
+    <hyperlink r:id="rId14" ref="B13"/>
+    <hyperlink r:id="rId15" ref="Q13"/>
+    <hyperlink r:id="rId16" ref="B14"/>
+    <hyperlink r:id="rId17" ref="Q14"/>
+    <hyperlink r:id="rId18" ref="B15"/>
+    <hyperlink r:id="rId19" ref="Q15"/>
+    <hyperlink r:id="rId20" ref="B16"/>
+    <hyperlink r:id="rId21" ref="Q16"/>
   </hyperlinks>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>